--- a/発車データ.xlsx
+++ b/発車データ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\git\codex\kmaruoka\essahoisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A56FF2-B64B-44BE-A6FB-4C22865D2E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99947023-07D9-4005-B4D0-ACFA0E6CB81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2535" windowWidth="19440" windowHeight="14880" xr2:uid="{D3BA72A0-EFE0-4741-BBD6-18EB2B75381B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{D3BA72A0-EFE0-4741-BBD6-18EB2B75381B}"/>
   </bookViews>
   <sheets>
     <sheet name="時間順" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="124">
   <si>
     <t>単独</t>
     <rPh sb="0" eb="2">
@@ -920,10 +920,6 @@
   </si>
   <si>
     <t>せいひんてぃー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1183,7 +1179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1372,6 +1368,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2039,7 +2053,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="B6:C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2851,9 +2867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741AFD83-BECC-45CB-95F2-3F40C32C9381}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2973,13 +2987,13 @@
     </row>
     <row r="5" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="54"/>
-      <c r="B5" s="27">
+      <c r="B5" s="65">
         <v>2</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="63">
         <v>0.20138888888888887</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="63">
         <v>0.20486111111111108</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -2991,10 +3005,10 @@
       <c r="G5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="67" t="s">
         <v>67</v>
       </c>
       <c r="J5" s="47" t="s">
@@ -3015,26 +3029,16 @@
     </row>
     <row r="6" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="54"/>
-      <c r="B6" s="27">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.20138888888888887</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.20486111111111108</v>
-      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F6" s="57"/>
       <c r="G6" s="53"/>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>124</v>
-      </c>
+      <c r="H6" s="53"/>
+      <c r="I6" s="68"/>
       <c r="J6" s="47" t="s">
         <v>88</v>
       </c>
@@ -3253,13 +3257,13 @@
       <c r="A12" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="65">
         <v>9</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="63">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="63">
         <v>0.43402777777777779</v>
       </c>
       <c r="E12" s="14" t="s">
@@ -3271,10 +3275,10 @@
       <c r="G12" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="33" t="s">
+      <c r="H12" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="67" t="s">
         <v>68</v>
       </c>
       <c r="J12" s="47" t="s">
@@ -3295,26 +3299,16 @@
     </row>
     <row r="13" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="55"/>
-      <c r="B13" s="27">
-        <v>10</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.43402777777777779</v>
-      </c>
+      <c r="B13" s="66"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="53"/>
-      <c r="H13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>68</v>
-      </c>
+      <c r="H13" s="53"/>
+      <c r="I13" s="68"/>
       <c r="J13" s="47" t="s">
         <v>95</v>
       </c>
@@ -3810,7 +3804,12 @@
     <row r="43" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="44" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="17">
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="D12:D13"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="F5:F6"/>
@@ -3818,6 +3817,11 @@
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3830,9 +3834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAD26B8-CB12-4309-9379-D23406769828}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3912,13 +3914,13 @@
       <c r="A4" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="65">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="63">
         <v>0.20138888888888887</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="63">
         <v>0.20486111111111108</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -3930,10 +3932,10 @@
       <c r="G4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="67" t="s">
         <v>77</v>
       </c>
       <c r="J4" s="47" t="s">
@@ -3954,26 +3956,16 @@
     </row>
     <row r="5" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="59"/>
-      <c r="B5" s="27">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.20138888888888887</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.20486111111111108</v>
-      </c>
+      <c r="B5" s="66"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
-      <c r="H5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>77</v>
-      </c>
+      <c r="H5" s="53"/>
+      <c r="I5" s="68"/>
       <c r="J5" s="47" t="s">
         <v>88</v>
       </c>
@@ -4528,7 +4520,12 @@
     <row r="43" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="44" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="A4:A5"/>
